--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -17,13 +17,15 @@
     <sheet name="Books6 19 2023 11 50 51 PM" sheetId="10" r:id="rId11"/>
     <sheet name="Books6 20 2023 12 24 21 AM" sheetId="11" r:id="rId12"/>
     <sheet name="Books6 20 2023 1 45 56 AM" sheetId="12" r:id="rId13"/>
+    <sheet name="Books6 20 2023 8 52 26 AM" sheetId="13" r:id="rId14"/>
+    <sheet name="Books6 20 2023 12 54 12 PM" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Title</t>
   </si>
@@ -500,6 +502,9 @@
   </si>
   <si>
     <t>ShelfLocation</t>
+  </si>
+  <si>
+    <t>Hentai</t>
   </si>
 </sst>
 </file>
@@ -4591,6 +4596,2372 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="0">
+        <v>12</v>
+      </c>
+      <c r="E55" s="0">
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="0">
+        <v>12</v>
+      </c>
+      <c r="E55" s="0">
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="0">
+        <v>12</v>
+      </c>
+      <c r="E57" s="0">
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="0">
+        <v>12</v>
+      </c>
+      <c r="E58" s="0">
+        <v>13</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="0">
+        <v>12</v>
+      </c>
+      <c r="E59" s="0">
+        <v>13</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="0">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0">
+        <v>13</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="0">
+        <v>12</v>
+      </c>
+      <c r="E61" s="0">
+        <v>13</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F54"/>

--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -19,13 +19,14 @@
     <sheet name="Books6 20 2023 1 45 56 AM" sheetId="12" r:id="rId13"/>
     <sheet name="Books6 20 2023 8 52 26 AM" sheetId="13" r:id="rId14"/>
     <sheet name="Books6 20 2023 12 54 12 PM" sheetId="14" r:id="rId15"/>
+    <sheet name="Books6 20 2023 9 09 38 PM" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Title</t>
   </si>
@@ -506,6 +507,15 @@
   <si>
     <t>Hentai</t>
   </si>
+  <si>
+    <t>Ngudot</t>
+  </si>
+  <si>
+    <t>6/20/2023</t>
+  </si>
+  <si>
+    <t>Vjppro</t>
+  </si>
 </sst>
 </file>
 
@@ -6962,6 +6972,1219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="0">
+        <v>12</v>
+      </c>
+      <c r="E54" s="0">
+        <v>13</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="0">
+        <v>12</v>
+      </c>
+      <c r="E55" s="0">
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="0">
+        <v>11</v>
+      </c>
+      <c r="E57" s="0">
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="0">
+        <v>3</v>
+      </c>
+      <c r="E58" s="0">
+        <v>5</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="0">
+        <v>3</v>
+      </c>
+      <c r="E59" s="0">
+        <v>5</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="0">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0">
+        <v>2</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F54"/>

--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Books6 20 2023 8 52 26 AM" sheetId="13" r:id="rId14"/>
     <sheet name="Books6 20 2023 12 54 12 PM" sheetId="14" r:id="rId15"/>
     <sheet name="Books6 20 2023 9 09 38 PM" sheetId="15" r:id="rId16"/>
+    <sheet name="Books6 21 2023 12 35 26 AM" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -8185,6 +8186,1219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="0">
+        <v>12</v>
+      </c>
+      <c r="E54" s="0">
+        <v>13</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="0">
+        <v>12</v>
+      </c>
+      <c r="E55" s="0">
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="0">
+        <v>11</v>
+      </c>
+      <c r="E57" s="0">
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="0">
+        <v>10</v>
+      </c>
+      <c r="E58" s="0">
+        <v>10</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="0">
+        <v>10</v>
+      </c>
+      <c r="E59" s="0">
+        <v>10</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="0">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0">
+        <v>13</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F54"/>

--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Books6 20 2023 12 54 12 PM" sheetId="14" r:id="rId15"/>
     <sheet name="Books6 20 2023 9 09 38 PM" sheetId="15" r:id="rId16"/>
     <sheet name="Books6 21 2023 12 35 26 AM" sheetId="16" r:id="rId17"/>
+    <sheet name="Books6 21 2023 7 40 38 AM" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -9399,6 +9400,1219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="0">
+        <v>12</v>
+      </c>
+      <c r="E54" s="0">
+        <v>13</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="0">
+        <v>12</v>
+      </c>
+      <c r="E55" s="0">
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="0">
+        <v>11</v>
+      </c>
+      <c r="E57" s="0">
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="0">
+        <v>10</v>
+      </c>
+      <c r="E58" s="0">
+        <v>10</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="0">
+        <v>10</v>
+      </c>
+      <c r="E59" s="0">
+        <v>10</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="0">
+        <v>12</v>
+      </c>
+      <c r="E60" s="0">
+        <v>13</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F54"/>

--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -22,13 +22,14 @@
     <sheet name="Books6 20 2023 9 09 38 PM" sheetId="15" r:id="rId16"/>
     <sheet name="Books6 21 2023 12 35 26 AM" sheetId="16" r:id="rId17"/>
     <sheet name="Books6 21 2023 7 40 38 AM" sheetId="17" r:id="rId18"/>
+    <sheet name="Books6 21 2023 10 10 01 AM" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Title</t>
   </si>
@@ -518,6 +519,15 @@
   <si>
     <t>Vjppro</t>
   </si>
+  <si>
+    <t>Internal Duck</t>
+  </si>
+  <si>
+    <t>HongKong</t>
+  </si>
+  <si>
+    <t>6/21/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -10613,6 +10623,1119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F54"/>

--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Books6 21 2023 3 12 19 PM" sheetId="1" r:id="rId1"/>
     <sheet name="Books6 21 2023 3 45 29 PM" sheetId="2" r:id="rId3"/>
+    <sheet name="Books6 22 2023 3 07 14 PM" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Title</t>
   </si>
@@ -490,6 +491,12 @@
   </si>
   <si>
     <t>6/21/2023</t>
+  </si>
+  <si>
+    <t>Hentai</t>
+  </si>
+  <si>
+    <t>6/19/2023</t>
   </si>
 </sst>
 </file>
@@ -2757,4 +2764,1137 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -8,13 +8,15 @@
     <sheet name="Books6 21 2023 3 12 19 PM" sheetId="1" r:id="rId1"/>
     <sheet name="Books6 21 2023 3 45 29 PM" sheetId="2" r:id="rId3"/>
     <sheet name="Books6 22 2023 3 07 14 PM" sheetId="3" r:id="rId4"/>
+    <sheet name="Books6 26 2023 7 37 07 AM" sheetId="4" r:id="rId5"/>
+    <sheet name="Books6 27 2023 4 13 32 PM" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Title</t>
   </si>
@@ -497,6 +499,9 @@
   </si>
   <si>
     <t>6/19/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tay Du Ky</t>
   </si>
 </sst>
 </file>
@@ -3897,4 +3902,2290 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="0">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="0">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="0">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="0">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="0">
+        <v>12</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="0">
+        <v>12</v>
+      </c>
+      <c r="E57" s="0">
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Books6 22 2023 3 07 14 PM" sheetId="3" r:id="rId4"/>
     <sheet name="Books6 26 2023 7 37 07 AM" sheetId="4" r:id="rId5"/>
     <sheet name="Books6 27 2023 4 13 32 PM" sheetId="5" r:id="rId6"/>
+    <sheet name="Books6 30 2023 8 27 07 AM" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Title</t>
   </si>
@@ -502,6 +503,60 @@
   </si>
   <si>
     <t xml:space="preserve"> Tay Du Ky</t>
+  </si>
+  <si>
+    <t>Internal Ducks</t>
+  </si>
+  <si>
+    <t>fghfgh</t>
+  </si>
+  <si>
+    <t>fgfgh</t>
+  </si>
+  <si>
+    <t>6/29/2023</t>
+  </si>
+  <si>
+    <t>nguvcc</t>
+  </si>
+  <si>
+    <t>gfdg</t>
+  </si>
+  <si>
+    <t>fgdfg</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sdfdsf</t>
+  </si>
+  <si>
+    <t>vjppro</t>
+  </si>
+  <si>
+    <t>vjpvcl</t>
+  </si>
+  <si>
+    <t>Dogs</t>
+  </si>
+  <si>
+    <t>Catss</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>hentai</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>dsfsdf</t>
   </si>
 </sst>
 </file>
@@ -6188,4 +6243,1097 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>3</v>
+      </c>
+      <c r="E48" s="0">
+        <v>5</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>4</v>
+      </c>
+      <c r="E49" s="0">
+        <v>34</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>9</v>
+      </c>
+      <c r="E50" s="0">
+        <v>41</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>5</v>
+      </c>
+      <c r="E51" s="0">
+        <v>10</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="0">
+        <v>2</v>
+      </c>
+      <c r="E52" s="0">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0">
+        <v>4</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="0">
+        <v>12</v>
+      </c>
+      <c r="E54" s="0">
+        <v>13</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Books6 26 2023 7 37 07 AM" sheetId="4" r:id="rId5"/>
     <sheet name="Books6 27 2023 4 13 32 PM" sheetId="5" r:id="rId6"/>
     <sheet name="Books6 30 2023 8 27 07 AM" sheetId="6" r:id="rId7"/>
+    <sheet name="Books7 18 2023 9 42 27 AM" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Title</t>
   </si>
@@ -557,6 +558,30 @@
   </si>
   <si>
     <t>dsfsdf</t>
+  </si>
+  <si>
+    <t>Tay Du Ky</t>
+  </si>
+  <si>
+    <t>Ngo Thua An</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>gfdggfd</t>
+  </si>
+  <si>
+    <t>7/17/2023</t>
+  </si>
+  <si>
+    <t>rtert</t>
+  </si>
+  <si>
+    <t>werwer</t>
+  </si>
+  <si>
+    <t>truyen hai</t>
   </si>
 </sst>
 </file>
@@ -7336,4 +7361,1117 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0">
+        <v>34</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="0">
+        <v>3</v>
+      </c>
+      <c r="E55" s="0">
+        <v>3</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Books6 27 2023 4 13 32 PM" sheetId="5" r:id="rId6"/>
     <sheet name="Books6 30 2023 8 27 07 AM" sheetId="6" r:id="rId7"/>
     <sheet name="Books7 18 2023 9 42 27 AM" sheetId="7" r:id="rId8"/>
+    <sheet name="Books7 18 2023 3 05 02 PM" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Title</t>
   </si>
@@ -582,6 +583,12 @@
   </si>
   <si>
     <t>truyen hai</t>
+  </si>
+  <si>
+    <t>TestImg2</t>
+  </si>
+  <si>
+    <t>7/18/2023</t>
   </si>
 </sst>
 </file>
@@ -8474,4 +8481,1117 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0">
+        <v>34</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>2</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ProjectPRN221/books.xlsx
+++ b/ProjectPRN221/books.xlsx
@@ -13,13 +13,17 @@
     <sheet name="Books6 30 2023 8 27 07 AM" sheetId="6" r:id="rId7"/>
     <sheet name="Books7 18 2023 9 42 27 AM" sheetId="7" r:id="rId8"/>
     <sheet name="Books7 18 2023 3 05 02 PM" sheetId="8" r:id="rId9"/>
+    <sheet name="Books7 18 2023 6 31 04 PM" sheetId="9" r:id="rId10"/>
+    <sheet name="Books7 18 2023 6 32 25 PM" sheetId="10" r:id="rId11"/>
+    <sheet name="Books7 18 2023 6 33 51 PM" sheetId="11" r:id="rId12"/>
+    <sheet name="Books7 18 2023 7 00 30 PM" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Title</t>
   </si>
@@ -589,6 +593,99 @@
   </si>
   <si>
     <t>7/18/2023</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>"The Chronicles of Elysium" is an enthralling epic novel that spans across a myriad of realms and captivates readers with its rich tapestry of imagination. With a total of 500 pages, this meticulously crafted masterpiece weaves together a complex web of characters, landscapes, and profound storytelling.</t>
+  </si>
+  <si>
+    <t>From the moment readers delve into the first page, they are transported to a world unlike any other. The author's vivid descriptions paint a breathtaking picture of the enchanting land of Elysium, a realm where magic and reality seamlessly intertwine. The landscapes unfold before the readers' eyes, from mist-covered ancient forests to towering mountains cloaked in mystery.</t>
+  </si>
+  <si>
+    <t>At the heart of this epic tale lies a diverse cast of characters, each with their own hopes, dreams, and personal struggles. The protagonist, a young sorceress named Lyra, embarks on a perilous quest to save her realm from an impending darkness that threatens to consume everything she holds dear. Along her journey, she encounters loyal companions, formidable adversaries, and discovers her own hidden powers that surpass her wildest imagination.</t>
+  </si>
+  <si>
+    <t>The narrative of "The Chronicles of Elysium" is a masterful blend of action, intrigue, and emotional depth. The author's writing style effortlessly transports readers into the heart of the story, making them feel every triumph, heartache, and moment of suspense. As the plot thickens, unexpected twists and turns keep readers on the edge of their seats, eager to uncover the next revelation.</t>
+  </si>
+  <si>
+    <t>Moreover, the novel delves into profound themes that resonate with readers on a deeper level. Themes of sacrifice, redemption, and the power of friendship and love permeate the pages, leaving a lasting impact on those who embark on this literary journey.</t>
+  </si>
+  <si>
+    <t>"The Chronicles of Elysium" is a testament to the author's exceptional storytelling prowess. Their ability to create a world so immersive, characters so relatable, and a plot so engrossing is a testament to their talent and dedication. This spellbinding tale will undoubtedly leave readers yearning for more, eagerly awaiting the subsequent volumes in this extraordinary series.</t>
+  </si>
+  <si>
+    <t>In conclusion, "The Chronicles of Elysium" is a monumental literary achievement. With its lush world-building, captivating characters, and a narrative that takes readers on an unforgettable journey, this book stands as a testament to the power of imagination and the enduring magic of storytelling.</t>
+  </si>
+  <si>
+    <t>From the moment readers delve into the first page, they are transported to a world unlike any other. The author's vivid descriptions paint a breathtaking picture of the enchanting land of Elysium, a realm where magic and reality seamlessly intertwine. The landscapes unfold before the readers' eyes, from mist-covered ancient forests to towering mountains cloaked in mystery. The air is imbued with the scent of blooming flowers, while the sun casts a golden glow upon lush meadows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the heart of this epic tale lies a diverse cast of characters, each with their own hopes, dreams, and personal struggles. The protagonist, a young sorceress named Lyra, embarks on a perilous quest to save her realm from an impending darkness that threatens to consume everything she holds dear. Along her journey, she encounters loyal companions, formidable adversaries, and discovers her own hidden powers that surpass her wildest imagination. </t>
+  </si>
+  <si>
+    <t>The narrative of "The Chronicles of Elysium" is a masterful blend of action, intrigue, and emotional depth. The author's writing style effortlessly transports readers into the heart of the story, making them feel every triumph, heartache, and moment of suspense. As the plot thickens, unexpected twists and turns keep readers on the edge of their seats, eager to uncover the next revelation</t>
+  </si>
+  <si>
+    <t>Moreover, the novel delves into profound themes that resonate with readers on a deeper level. Themes of sacrifice, redemption, and the power of friendship and love permeate the pages, leaving a lasting impact on those who embark on this literary journey. Through Lyra's struggles and triumphs, readers are reminded of the strength that lies within them and the importance of staying true to oneself in the face of adversity.v</t>
+  </si>
+  <si>
+    <t>In conclusion, "The Chronicles of Elysium" is a monumental literary achievement. With its lush world-building, captivating characters, and a narrative that takes readers on an unforgettable journey, this book stands as a testament to the power of imagination and the enduring magic of storytelling. It is a must-read for fantasy enthusiasts, offering a captivating escape into a world of wonder and adventure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.hstatic.net/1000310443/file/c556795c-97a8-4e6e-8461-a6e8edbc1c0d_f95b396961084269b61bc64d820932fe_grande.jpeg                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lib.uel.edu.vn/Resources/Images/SubDomain/lib/TinTuc/hatgiongtamhon.jpg                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ghiensach.com/wp-content/uploads/2021/09/sach-ve-cuoc-song.jpg                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://danhgiatot.vn/wp-content/uploads/2021/02/sach-hay-ve-cuoc-song-5.jpg                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kinhtechungkhoan.vn/stores/news_dataimages/thuuyen/072019/30/16/in_article/1001_sach.jpg                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.ybox.vn/2017/8/30/a3cb4f7e-8d6a-11e7-8572-2e995a9a3302.jpg                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://anybooks.vn/uploads/images/sach-nhung-bai-hoc-khong-co-noi-giang-duong.jpg                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://giatricuocsong.org/wp-content/uploads/2021/08/toi-thay-hoa-vang-tren-co-xanh.jpg                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT6K-YUQ0NRwtbPCb6Sp9Zcb4je0WeZ-MxtGA&amp;usqp=CAU                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRyzE_4MgzgmDEi8FVKFZ5ZAcSbTIUdBKL2U4h3IR9aRX44yWoRGOl_odKwOOsz39oVirI&amp;usqp=CAU                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dongphuchaianh.com/wp-content/uploads/2021/05/nhung-cuon-sach-hay-cho-hoc-sinh.jpg                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://novaedu.vn/uploads/news/2020_08/_o-lai-thanh-pho-hay-ve-que_.jpg                                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xwatch.vn/upload_images/images/2023/01/31/nhung-tam-long-cao-ca.jpg                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRSYgraqLhIxVjyTA_Sg95-H3oXGyCqYf7D4w&amp;usqp=CAU                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://danhgiatot.vn/wp-content/uploads/2021/12/sach-hay-nen-doc-8.jpg                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.spiderum.com/sp-images/a32da8700d6111ecaaaee1c94d890a8f.jpeg                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://career.gpo.vn/uploads/images/yes-or-no-nhung-quyet-dinh-thay-doi-cuoc-song-tac-gia-spencer-johnson-md-136673.jpg                                                                                </t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -1745,6 +1842,3636 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0">
+        <v>34</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>2</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0">
+        <v>34</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>2</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0">
+        <v>34</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>2</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F55"/>
@@ -9594,4 +13321,1162 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>5</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0">
+        <v>6</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>6</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="0">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="0">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>7</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0">
+        <v>6</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0">
+        <v>7</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>7</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="0">
+        <v>3</v>
+      </c>
+      <c r="E44" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0">
+        <v>4</v>
+      </c>
+      <c r="E46" s="0">
+        <v>5</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="0">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0">
+        <v>34</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0">
+        <v>41</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="0">
+        <v>5</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="0">
+        <v>12</v>
+      </c>
+      <c r="E52" s="0">
+        <v>12</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="0">
+        <v>5</v>
+      </c>
+      <c r="E53" s="0">
+        <v>5</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="0">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="0">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0">
+        <v>2</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>